--- a/Team-Data/2011-12/3-5-2011-12.xlsx
+++ b/Team-Data/2011-12/3-5-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -756,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -774,22 +841,22 @@
         <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
       </c>
       <c r="AR2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>16</v>
@@ -798,16 +865,16 @@
         <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -926,22 +993,22 @@
         <v>1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -953,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN3" t="n">
         <v>7</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -980,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-14.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,7 +1187,7 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,7 +1196,7 @@
         <v>21</v>
       </c>
       <c r="AK4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL4" t="n">
         <v>26</v>
@@ -1138,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>19</v>
@@ -1153,7 +1220,7 @@
         <v>24</v>
       </c>
       <c r="AS4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
@@ -1162,7 +1229,7 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>30</v>
@@ -1171,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ4" t="n">
         <v>14</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -1212,82 +1279,82 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
         <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8</v>
+        <v>0.795</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M5" t="n">
         <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.389</v>
+        <v>0.384</v>
       </c>
       <c r="O5" t="n">
         <v>15.6</v>
       </c>
       <c r="P5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.723</v>
+        <v>0.726</v>
       </c>
       <c r="R5" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="S5" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T5" t="n">
-        <v>46</v>
+        <v>45.6</v>
       </c>
       <c r="U5" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
         <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="AA5" t="n">
         <v>17.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1320,28 +1387,28 @@
         <v>20</v>
       </c>
       <c r="AN5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP5" t="n">
         <v>18</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU5" t="n">
         <v>1</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>2</v>
       </c>
       <c r="AV5" t="n">
         <v>4</v>
@@ -1350,7 +1417,7 @@
         <v>21</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
         <v>14</v>
@@ -1362,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="BB5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC5" t="n">
         <v>1</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -1394,22 +1461,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>0.361</v>
+        <v>0.371</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
         <v>81.2</v>
@@ -1421,10 +1488,10 @@
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O6" t="n">
         <v>17.7</v>
@@ -1433,46 +1500,46 @@
         <v>25.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>30.2</v>
       </c>
       <c r="T6" t="n">
-        <v>42.9</v>
+        <v>43.3</v>
       </c>
       <c r="U6" t="n">
         <v>20.3</v>
       </c>
       <c r="V6" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.6</v>
+        <v>-4.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1493,7 +1560,7 @@
         <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>9</v>
@@ -1517,16 +1584,16 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
         <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
         <v>17</v>
@@ -1541,7 +1608,7 @@
         <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.579</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1600,34 +1667,34 @@
         <v>0.437</v>
       </c>
       <c r="L7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M7" t="n">
         <v>22.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.328</v>
+        <v>0.326</v>
       </c>
       <c r="O7" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P7" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.746</v>
+        <v>0.743</v>
       </c>
       <c r="R7" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T7" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U7" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V7" t="n">
         <v>14.6</v>
@@ -1639,19 +1706,19 @@
         <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA7" t="n">
         <v>18.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD7" t="n">
         <v>2</v>
@@ -1684,31 +1751,31 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>20</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>18</v>
       </c>
       <c r="AR7" t="n">
         <v>21</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
         <v>3</v>
@@ -1717,16 +1784,16 @@
         <v>13</v>
       </c>
       <c r="AY7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -1758,46 +1825,46 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
         <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="H8" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I8" t="n">
         <v>38.3</v>
       </c>
       <c r="J8" t="n">
-        <v>82.09999999999999</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.467</v>
       </c>
       <c r="L8" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.326</v>
+        <v>0.324</v>
       </c>
       <c r="O8" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="P8" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R8" t="n">
         <v>11</v>
@@ -1806,10 +1873,10 @@
         <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U8" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="V8" t="n">
         <v>15.5</v>
@@ -1818,7 +1885,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y8" t="n">
         <v>6.7</v>
@@ -1827,10 +1894,10 @@
         <v>19.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.1</v>
+        <v>103.7</v>
       </c>
       <c r="AC8" t="n">
         <v>2.7</v>
@@ -1839,28 +1906,28 @@
         <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
@@ -1881,13 +1948,13 @@
         <v>18</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV8" t="n">
         <v>22</v>
@@ -1896,13 +1963,13 @@
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
       </c>
       <c r="AZ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -2018,19 +2085,19 @@
         <v>-6.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>28</v>
@@ -2039,7 +2106,7 @@
         <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
         <v>27</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2060,13 +2127,13 @@
         <v>9</v>
       </c>
       <c r="AR9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
       </c>
       <c r="AT9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU9" t="n">
         <v>26</v>
@@ -2081,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ9" t="n">
         <v>9</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -2122,85 +2189,85 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>0.429</v>
+        <v>0.412</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J10" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L10" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="M10" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.383</v>
+        <v>0.375</v>
       </c>
       <c r="O10" t="n">
         <v>15.4</v>
       </c>
       <c r="P10" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.758</v>
+        <v>0.754</v>
       </c>
       <c r="R10" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S10" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="T10" t="n">
-        <v>40.3</v>
+        <v>40.1</v>
       </c>
       <c r="U10" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V10" t="n">
         <v>14.3</v>
       </c>
       <c r="W10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y10" t="n">
         <v>4.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.2</v>
+        <v>-2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2215,13 +2282,13 @@
         <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL10" t="n">
         <v>4</v>
@@ -2230,37 +2297,37 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR10" t="n">
         <v>20</v>
       </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
       </c>
       <c r="AW10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY10" t="n">
         <v>2</v>
@@ -2272,10 +2339,10 @@
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2449,19 @@
         <v>0.6</v>
       </c>
       <c r="AD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH11" t="n">
         <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6</v>
       </c>
       <c r="AI11" t="n">
         <v>6</v>
@@ -2412,10 +2479,10 @@
         <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP11" t="n">
         <v>28</v>
@@ -2436,7 +2503,7 @@
         <v>18</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW11" t="n">
         <v>18</v>
@@ -2445,16 +2512,16 @@
         <v>20</v>
       </c>
       <c r="AY11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>18</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -2486,64 +2553,64 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" t="n">
         <v>23</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.639</v>
+        <v>0.657</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="J12" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.428</v>
+        <v>0.43</v>
       </c>
       <c r="L12" t="n">
         <v>5.7</v>
       </c>
       <c r="M12" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.364</v>
+        <v>0.369</v>
       </c>
       <c r="O12" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="P12" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R12" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="S12" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T12" t="n">
-        <v>44.1</v>
+        <v>44.5</v>
       </c>
       <c r="U12" t="n">
         <v>18.1</v>
       </c>
       <c r="V12" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W12" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>5.6</v>
@@ -2552,34 +2619,34 @@
         <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>95.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
       </c>
       <c r="AF12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG12" t="n">
         <v>5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>6</v>
       </c>
       <c r="AH12" t="n">
         <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ12" t="n">
         <v>19</v>
@@ -2591,13 +2658,13 @@
         <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>4</v>
@@ -2609,37 +2676,37 @@
         <v>5</v>
       </c>
       <c r="AS12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV12" t="n">
         <v>13</v>
       </c>
-      <c r="AT12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>10</v>
-      </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
         <v>25</v>
       </c>
       <c r="BA12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
         <v>22</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.611</v>
+        <v>0.629</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J13" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L13" t="n">
         <v>7.6</v>
@@ -2698,37 +2765,37 @@
         <v>21.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.353</v>
+        <v>0.357</v>
       </c>
       <c r="O13" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="P13" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="R13" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S13" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T13" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>21.2</v>
       </c>
       <c r="V13" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y13" t="n">
         <v>4.3</v>
@@ -2740,13 +2807,13 @@
         <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
@@ -2755,7 +2822,7 @@
         <v>6</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH13" t="n">
         <v>4</v>
@@ -2764,10 +2831,10 @@
         <v>10</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2776,28 +2843,28 @@
         <v>5</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
         <v>16</v>
       </c>
       <c r="AP13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ13" t="n">
         <v>28</v>
       </c>
       <c r="AR13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS13" t="n">
         <v>15</v>
       </c>
       <c r="AT13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV13" t="n">
         <v>3</v>
@@ -2809,7 +2876,7 @@
         <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>2.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="n">
         <v>17</v>
@@ -2958,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO14" t="n">
         <v>14</v>
@@ -2976,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV14" t="n">
         <v>17</v>
@@ -3003,7 +3070,7 @@
         <v>20</v>
       </c>
       <c r="BC14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>8</v>
@@ -3128,10 +3195,10 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3140,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3149,16 +3216,16 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
@@ -3173,10 +3240,10 @@
         <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3334,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS16" t="n">
         <v>8</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
         <v>23</v>
       </c>
       <c r="G17" t="n">
-        <v>0.395</v>
+        <v>0.378</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3414,10 +3481,10 @@
         <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>85.09999999999999</v>
+        <v>85</v>
       </c>
       <c r="K17" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L17" t="n">
         <v>6.6</v>
@@ -3426,25 +3493,25 @@
         <v>20</v>
       </c>
       <c r="N17" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O17" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P17" t="n">
         <v>21.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.793</v>
+        <v>0.791</v>
       </c>
       <c r="R17" t="n">
         <v>12.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="T17" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="U17" t="n">
         <v>21.4</v>
@@ -3453,7 +3520,7 @@
         <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.9</v>
@@ -3465,28 +3532,28 @@
         <v>19.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.5</v>
+        <v>-2.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
@@ -3501,7 +3568,7 @@
         <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
         <v>18</v>
@@ -3522,7 +3589,7 @@
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU17" t="n">
         <v>11</v>
@@ -3531,25 +3598,25 @@
         <v>9</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>19</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ17" t="n">
         <v>15</v>
       </c>
       <c r="BA17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
         <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>0.513</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J18" t="n">
         <v>81.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.329</v>
+        <v>0.326</v>
       </c>
       <c r="O18" t="n">
         <v>20.4</v>
@@ -3617,31 +3684,31 @@
         <v>26.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R18" t="n">
         <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T18" t="n">
-        <v>44.4</v>
+        <v>44.5</v>
       </c>
       <c r="U18" t="n">
         <v>18.9</v>
       </c>
       <c r="V18" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W18" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
         <v>4.2</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z18" t="n">
         <v>18.9</v>
@@ -3668,13 +3735,13 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
@@ -3683,13 +3750,13 @@
         <v>16</v>
       </c>
       <c r="AM18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP18" t="n">
         <v>3</v>
@@ -3704,7 +3771,7 @@
         <v>9</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU18" t="n">
         <v>25</v>
@@ -3716,10 +3783,10 @@
         <v>19</v>
       </c>
       <c r="AX18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
         <v>8</v>
@@ -3728,7 +3795,7 @@
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -3838,25 +3905,25 @@
         <v>-6.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
       </c>
       <c r="AF19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK19" t="n">
         <v>27</v>
@@ -3874,13 +3941,13 @@
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3892,7 +3959,7 @@
         <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>23</v>
@@ -3904,7 +3971,7 @@
         <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" t="n">
-        <v>0.237</v>
+        <v>0.243</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>34.3</v>
+        <v>34.5</v>
       </c>
       <c r="J20" t="n">
-        <v>78.90000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="K20" t="n">
         <v>0.435</v>
@@ -3969,34 +4036,34 @@
         <v>3.9</v>
       </c>
       <c r="M20" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="N20" t="n">
         <v>0.315</v>
       </c>
       <c r="O20" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P20" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.741</v>
+        <v>0.746</v>
       </c>
       <c r="R20" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
         <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U20" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="V20" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W20" t="n">
         <v>7.3</v>
@@ -4014,13 +4081,13 @@
         <v>18.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>88</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,13 +4099,13 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI20" t="n">
         <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK20" t="n">
         <v>19</v>
@@ -4050,19 +4117,19 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO20" t="n">
         <v>24</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
         <v>20</v>
@@ -4074,16 +4141,16 @@
         <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW20" t="n">
         <v>20</v>
       </c>
       <c r="AX20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -4202,19 +4269,19 @@
         <v>1.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>16</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4241,13 +4308,13 @@
         <v>7</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
         <v>16</v>
       </c>
       <c r="AS21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4256,13 +4323,13 @@
         <v>23</v>
       </c>
       <c r="AV21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW21" t="n">
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -4306,64 +4373,64 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" t="n">
         <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.789</v>
+        <v>0.784</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J22" t="n">
         <v>77.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="L22" t="n">
         <v>6.8</v>
       </c>
       <c r="M22" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O22" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="P22" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.798</v>
+        <v>0.795</v>
       </c>
       <c r="R22" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S22" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T22" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U22" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="V22" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="W22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X22" t="n">
         <v>7.7</v>
@@ -4372,19 +4439,19 @@
         <v>4.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
         <v>20.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>101.9</v>
+        <v>102.1</v>
       </c>
       <c r="AC22" t="n">
         <v>5.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>11</v>
@@ -4432,13 +4499,13 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>29</v>
       </c>
       <c r="AV22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW22" t="n">
         <v>16</v>
@@ -4450,7 +4517,7 @@
         <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" t="n">
         <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.641</v>
+        <v>0.632</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
@@ -4518,16 +4585,16 @@
         <v>26.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.388</v>
+        <v>0.39</v>
       </c>
       <c r="O23" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="P23" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.646</v>
+        <v>0.652</v>
       </c>
       <c r="R23" t="n">
         <v>11.1</v>
@@ -4539,13 +4606,13 @@
         <v>43.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
         <v>15.2</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
@@ -4554,10 +4621,10 @@
         <v>4.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AB23" t="n">
         <v>94.09999999999999</v>
@@ -4569,13 +4636,13 @@
         <v>2</v>
       </c>
       <c r="AE23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG23" t="n">
         <v>6</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>5</v>
       </c>
       <c r="AH23" t="n">
         <v>11</v>
@@ -4596,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>20</v>
@@ -4635,13 +4702,13 @@
         <v>5</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB23" t="n">
         <v>19</v>
       </c>
       <c r="BC23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -4670,64 +4737,64 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" t="n">
         <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.579</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J24" t="n">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L24" t="n">
         <v>5.6</v>
       </c>
       <c r="M24" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N24" t="n">
         <v>0.366</v>
       </c>
       <c r="O24" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="P24" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R24" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S24" t="n">
         <v>32.9</v>
       </c>
       <c r="T24" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U24" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V24" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="W24" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X24" t="n">
         <v>4.8</v>
@@ -4736,16 +4803,16 @@
         <v>4.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AD24" t="n">
         <v>2</v>
@@ -4760,7 +4827,7 @@
         <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
@@ -4769,7 +4836,7 @@
         <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4778,7 +4845,7 @@
         <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,16 +4857,16 @@
         <v>21</v>
       </c>
       <c r="AR24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AS24" t="n">
         <v>3</v>
       </c>
       <c r="AT24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -4808,7 +4875,7 @@
         <v>7</v>
       </c>
       <c r="AX24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY24" t="n">
         <v>8</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC24" t="n">
         <v>3</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>-1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
         <v>20</v>
@@ -4951,7 +5018,7 @@
         <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
         <v>14</v>
@@ -4984,7 +5051,7 @@
         <v>5</v>
       </c>
       <c r="AV25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW25" t="n">
         <v>24</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -5034,25 +5101,25 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" t="n">
         <v>19</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.486</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J26" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.448</v>
@@ -5061,10 +5128,10 @@
         <v>6.8</v>
       </c>
       <c r="M26" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.338</v>
+        <v>0.34</v>
       </c>
       <c r="O26" t="n">
         <v>17.5</v>
@@ -5073,16 +5140,16 @@
         <v>22.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R26" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S26" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T26" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U26" t="n">
         <v>21.8</v>
@@ -5097,25 +5164,25 @@
         <v>5.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z26" t="n">
         <v>20.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>16</v>
@@ -5124,22 +5191,22 @@
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ26" t="n">
         <v>6</v>
       </c>
       <c r="AK26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL26" t="n">
         <v>12</v>
       </c>
-      <c r="AL26" t="n">
-        <v>13</v>
-      </c>
       <c r="AM26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN26" t="n">
         <v>16</v>
@@ -5148,7 +5215,7 @@
         <v>10</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ26" t="n">
         <v>4</v>
@@ -5157,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT26" t="n">
         <v>24</v>
@@ -5166,22 +5233,22 @@
         <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -5216,85 +5283,85 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>0.316</v>
+        <v>0.324</v>
       </c>
       <c r="H27" t="n">
-        <v>48.3</v>
+        <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.5</v>
+        <v>35.2</v>
       </c>
       <c r="J27" t="n">
-        <v>85.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.414</v>
+        <v>0.413</v>
       </c>
       <c r="L27" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M27" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="N27" t="n">
-        <v>0.316</v>
+        <v>0.312</v>
       </c>
       <c r="O27" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P27" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R27" t="n">
         <v>14</v>
       </c>
       <c r="S27" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T27" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U27" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W27" t="n">
         <v>7.9</v>
       </c>
       <c r="X27" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA27" t="n">
         <v>20.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.3</v>
+        <v>94.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7.4</v>
+        <v>-7.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,31 +5373,31 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>1</v>
       </c>
       <c r="AK27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL27" t="n">
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
         <v>16</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5366,7 +5433,7 @@
         <v>12</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5494,7 +5561,7 @@
         <v>4</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5509,7 +5576,7 @@
         <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5524,7 +5591,7 @@
         <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
@@ -5545,13 +5612,13 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" t="n">
         <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" t="n">
-        <v>0.316</v>
+        <v>0.324</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
@@ -5601,16 +5668,16 @@
         <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L29" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M29" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.332</v>
+        <v>0.33</v>
       </c>
       <c r="O29" t="n">
         <v>16</v>
@@ -5619,13 +5686,13 @@
         <v>21.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R29" t="n">
         <v>10.4</v>
       </c>
       <c r="S29" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T29" t="n">
         <v>41.9</v>
@@ -5634,31 +5701,31 @@
         <v>21</v>
       </c>
       <c r="V29" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>89.3</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="AC29" t="n">
         <v>-4.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5670,7 +5737,7 @@
         <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>27</v>
@@ -5691,28 +5758,28 @@
         <v>17</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>21</v>
       </c>
       <c r="AQ29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU29" t="n">
         <v>15</v>
       </c>
       <c r="AV29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -5762,103 +5829,103 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" t="n">
         <v>19</v>
       </c>
       <c r="G30" t="n">
-        <v>0.486</v>
+        <v>0.472</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J30" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L30" t="n">
         <v>3.8</v>
       </c>
       <c r="M30" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.304</v>
+        <v>0.299</v>
       </c>
       <c r="O30" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P30" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R30" t="n">
         <v>12.6</v>
       </c>
       <c r="S30" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T30" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U30" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V30" t="n">
         <v>14.2</v>
       </c>
       <c r="W30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X30" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
         <v>20.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>96.8</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
         <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
         <v>8</v>
       </c>
       <c r="AI30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK30" t="n">
         <v>8</v>
@@ -5870,7 +5937,7 @@
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
@@ -5879,13 +5946,13 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>6</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
@@ -5897,19 +5964,19 @@
         <v>7</v>
       </c>
       <c r="AW30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX30" t="n">
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" t="n">
         <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.216</v>
+        <v>0.222</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5968,61 +6035,61 @@
         <v>0.431</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M31" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
       <c r="O31" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P31" t="n">
-        <v>22.3</v>
+        <v>21.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.72</v>
+        <v>0.728</v>
       </c>
       <c r="R31" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T31" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U31" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="V31" t="n">
         <v>15.7</v>
       </c>
       <c r="W31" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y31" t="n">
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8.6</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6034,7 +6101,7 @@
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
         <v>14</v>
@@ -6049,49 +6116,49 @@
         <v>25</v>
       </c>
       <c r="AM31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN31" t="n">
         <v>24</v>
       </c>
       <c r="AO31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP31" t="n">
         <v>17</v>
       </c>
-      <c r="AP31" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AS31" t="n">
         <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ31" t="n">
         <v>27</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-5-2011-12</t>
+          <t>2012-03-05</t>
         </is>
       </c>
     </row>
